--- a/src/main/resources/womenRevolveTop.xlsx
+++ b/src/main/resources/womenRevolveTop.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="176">
-  <si>
-    <t>Category</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="219">
+  <si>
+    <t>Id</t>
   </si>
   <si>
     <t>Image</t>
@@ -32,7 +32,25 @@
     <t>URL</t>
   </si>
   <si>
-    <t>TOPS</t>
+    <t>women_revolve_top_1</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FREE-WS3541_V1.jpg</t>
+  </si>
+  <si>
+    <t>Free People</t>
+  </si>
+  <si>
+    <t>Duo Corset Cami</t>
+  </si>
+  <si>
+    <t>CA$ 73.00</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/free-people-duo-corset-cami-in-black/dp/FREE-WS3541/?d=Womens&amp;vn=true&amp;page=1&amp;lc=1&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_2</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WS226_V1.jpg</t>
@@ -47,7 +65,10 @@
     <t>CA$ 200.28</t>
   </si>
   <si>
-    <t>https://www.revolve.com/norma-kamali-slim-fit-long-sleeve-turtle-top-in-chocolate/dp/NKAM-WS226/?d=Womens&amp;vn=true&amp;page=1&amp;lc=1&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/norma-kamali-slim-fit-long-sleeve-turtle-top-in-chocolate/dp/NKAM-WS226/?d=Womens&amp;vn=true&amp;page=1&amp;lc=2&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_3</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/HOOF-WS404_V1.jpg</t>
@@ -62,7 +83,10 @@
     <t>CA$ 269.17</t>
   </si>
   <si>
-    <t>https://www.revolve.com/house-of-harlow-1960-x-revolve-burna-blouse-in-cream/dp/HOOF-WS404/?d=Womens&amp;vn=true&amp;page=1&amp;lc=2&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/house-of-harlow-1960-x-revolve-burna-blouse-in-cream/dp/HOOF-WS404/?d=Womens&amp;vn=true&amp;page=1&amp;lc=3&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_4</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/NKIE-WS41_V1.jpg</t>
@@ -77,22 +101,10 @@
     <t>CA$ 302.82</t>
   </si>
   <si>
-    <t>https://www.revolve.com/nookie-hypnotize-bodysuit-in-black/dp/NKIE-WS41/?d=Womens&amp;vn=true&amp;page=1&amp;lc=3&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FREE-WS3541_V1.jpg</t>
-  </si>
-  <si>
-    <t>Free People</t>
-  </si>
-  <si>
-    <t>Duo Corset Cami</t>
-  </si>
-  <si>
-    <t>CA$ 73.00</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/free-people-duo-corset-cami-in-black/dp/FREE-WS3541/?d=Womens&amp;vn=true&amp;page=1&amp;lc=4&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/nookie-hypnotize-bodysuit-in-black/dp/NKIE-WS41/?d=Womens&amp;vn=true&amp;page=1&amp;lc=4&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_5</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WS91_V1.jpg</t>
@@ -107,31 +119,91 @@
     <t>https://www.revolve.com/norma-kamali-x-revolve-drop-shoulder-top-in-snow-white/dp/NKAM-WS91/?d=Womens&amp;vn=true&amp;page=1&amp;lc=5&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
+    <t>women_revolve_top_6</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BARD-WS314_V1.jpg</t>
+  </si>
+  <si>
+    <t>Bardot</t>
+  </si>
+  <si>
+    <t>Ambiance Bustier Top</t>
+  </si>
+  <si>
+    <t>CA$ 222.71</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/bardot-ambiance-bustier-top-in-black/dp/BARD-WS314/?d=Womens&amp;vn=true&amp;page=1&amp;lc=7&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_7</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/BARD-WS167_V1.jpg</t>
   </si>
   <si>
-    <t>Bardot</t>
-  </si>
-  <si>
     <t>Francesca Top</t>
   </si>
   <si>
     <t>CA$ 206.69</t>
   </si>
   <si>
-    <t>https://www.revolve.com/bardot-francesca-top-in-black/dp/BARD-WS167/?d=Womens&amp;vn=true&amp;page=1&amp;lc=6&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BARD-WS314_V1.jpg</t>
-  </si>
-  <si>
-    <t>Ambiance Bustier Top</t>
-  </si>
-  <si>
-    <t>CA$ 222.71</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/bardot-ambiance-bustier-top-in-black/dp/BARD-WS314/?d=Womens&amp;vn=true&amp;page=1&amp;lc=7&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/bardot-francesca-top-in-black/dp/BARD-WS167/?d=Womens&amp;vn=true&amp;page=1&amp;lc=8&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_8</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/HLSA-WS92_V1.jpg</t>
+  </si>
+  <si>
+    <t>Helsa</t>
+  </si>
+  <si>
+    <t>Sheer Knit Off The Shoulder Top</t>
+  </si>
+  <si>
+    <t>CA$ 285.20</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/helsa-sheer-knit-off-the-shoulder-top-in-ballet-pink/dp/HLSA-WS92/?d=Womens&amp;vn=true&amp;page=1&amp;lc=9&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_9</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/HLSA-WS94_V1.jpg</t>
+  </si>
+  <si>
+    <t>Elvira Cardigan Top</t>
+  </si>
+  <si>
+    <t>CA$ 317.24</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/helsa-elvira-cardigan-top-in-cream/dp/HLSA-WS94/?d=Womens&amp;vn=true&amp;page=1&amp;lc=10&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_10</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ANIN-WS317_V1.jpg</t>
+  </si>
+  <si>
+    <t>ANINE BING</t>
+  </si>
+  <si>
+    <t>Walker Tee Spotted Leopard</t>
+  </si>
+  <si>
+    <t>CA$ 192.27</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/anine-bing-walker-tee-spotted-leopard-in-washed-black/dp/ANIN-WS317/?d=Womens&amp;vn=true&amp;page=1&amp;lc=11&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_11</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/SDYS-WS85_V1.jpg</t>
@@ -146,34 +218,88 @@
     <t>CA$ 97.33</t>
   </si>
   <si>
-    <t>https://www.revolve.com/sndys-audrina-top-in-gold/dp/SDYS-WS85/?d=Womens&amp;vn=true&amp;page=1&amp;lc=8&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/HLSA-WS92_V1.jpg</t>
-  </si>
-  <si>
-    <t>Helsa</t>
-  </si>
-  <si>
-    <t>Sheer Knit Off The Shoulder Top</t>
-  </si>
-  <si>
-    <t>CA$ 285.20</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/helsa-sheer-knit-off-the-shoulder-top-in-ballet-pink/dp/HLSA-WS92/?d=Womens&amp;vn=true&amp;page=1&amp;lc=10&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/HLSA-WS94_V1.jpg</t>
-  </si>
-  <si>
-    <t>Elvira Cardigan Top</t>
-  </si>
-  <si>
-    <t>CA$ 317.24</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/helsa-elvira-cardigan-top-in-cream/dp/HLSA-WS94/?d=Womens&amp;vn=true&amp;page=1&amp;lc=11&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/sndys-audrina-top-in-gold/dp/SDYS-WS85/?d=Womens&amp;vn=true&amp;page=1&amp;lc=12&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_12</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WS227_V1.jpg</t>
+  </si>
+  <si>
+    <t>Oversized Boyfriend Shirt Bodysuit</t>
+  </si>
+  <si>
+    <t>CA$ 248.35</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/norma-kamali-oversized-boyfriend-shirt-bodysuit-in-chocolate/dp/NKAM-WS227/?d=Womens&amp;vn=true&amp;page=1&amp;lc=13&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_13</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/MLAU-WS906_V1.jpg</t>
+  </si>
+  <si>
+    <t>Michael Lauren</t>
+  </si>
+  <si>
+    <t>Eric Top</t>
+  </si>
+  <si>
+    <t>CA$ 119.49</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/michael-lauren-eric-top-in-red/dp/MLAU-WS906/?d=Womens&amp;vn=true&amp;page=1&amp;lc=14&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_14</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/MLAU-WS975_V1.jpg</t>
+  </si>
+  <si>
+    <t>Alick Long Sleeve Tee</t>
+  </si>
+  <si>
+    <t>CA$ 131.71</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/michael-lauren-alick-long-sleeve-tee-in-vintage-emerald/dp/MLAU-WS975/?d=Womens&amp;vn=true&amp;page=1&amp;lc=15&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_15</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BARD-WS365_V1.jpg</t>
+  </si>
+  <si>
+    <t>Como Bodysuit</t>
+  </si>
+  <si>
+    <t>CA$ 120.14</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/bardot-como-bodysuit-in-black/dp/BARD-WS365/?d=Womens&amp;vn=true&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_16</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/UCOD-WS19_V1.jpg</t>
+  </si>
+  <si>
+    <t>Undress Code</t>
+  </si>
+  <si>
+    <t>Kiss And Tell Bodysuit</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/undress-code-kiss-and-tell-bodysuit-in-black/dp/UCOD-WS19/?d=Womens&amp;vn=true&amp;page=1&amp;lc=17&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_17</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/SDYS-WS125_V1.jpg</t>
@@ -185,37 +311,76 @@
     <t>CA$ 91.25</t>
   </si>
   <si>
-    <t>https://www.revolve.com/sndys-roma-top-in-ivory/dp/SDYS-WS125/?d=Womens&amp;vn=true&amp;page=1&amp;lc=12&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ANIN-WS317_V1.jpg</t>
-  </si>
-  <si>
-    <t>ANINE BING</t>
-  </si>
-  <si>
-    <t>Walker Tee Spotted Leopard</t>
-  </si>
-  <si>
-    <t>CA$ 192.27</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/anine-bing-walker-tee-spotted-leopard-in-washed-black/dp/ANIN-WS317/?d=Womens&amp;vn=true&amp;page=1&amp;lc=13&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WS227_V1.jpg</t>
-  </si>
-  <si>
-    <t>Oversized Boyfriend Shirt Bodysuit</t>
-  </si>
-  <si>
-    <t>CA$ 248.35</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/norma-kamali-oversized-boyfriend-shirt-bodysuit-in-chocolate/dp/NKAM-WS227/?d=Womens&amp;vn=true&amp;page=1&amp;lc=14&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FREE-WS3398_V1.jpg</t>
+    <t>https://www.revolve.com/sndys-roma-top-in-ivory/dp/SDYS-WS125/?d=Womens&amp;page=1&amp;lc=18&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_18</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FREE-WS4415_V1.jpg</t>
+  </si>
+  <si>
+    <t>x We The Free Clean Prep Polo</t>
+  </si>
+  <si>
+    <t>CA$ 205.09</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/free-people-x-we-the-free-clean-prep-polo-in-ivory-combo/dp/FREE-WS4415/?d=Womens&amp;page=1&amp;lc=19&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_19</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/OWIR-WS38_V1.jpg</t>
+  </si>
+  <si>
+    <t>OW Collection</t>
+  </si>
+  <si>
+    <t>X REVOLVE Demi Top</t>
+  </si>
+  <si>
+    <t>CA$ 150.56</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/ow-collection-x-revolve-demi-top-in-light-blue-denim/dp/OWIR-WS38/?d=Womens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_20</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/MAOU-WS133_V1.jpg</t>
+  </si>
+  <si>
+    <t>Miaou</t>
+  </si>
+  <si>
+    <t>Jinx Top</t>
+  </si>
+  <si>
+    <t>CA$ 472.66</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/miaou-jinx-top-in-strawberry/dp/MAOU-WS133/?d=Womens&amp;page=1&amp;lc=21&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_21</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/MLAU-WS856_V1.jpg</t>
+  </si>
+  <si>
+    <t>Dave Halter Neck Top</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/michael-lauren-dave-halter-neck-top-in-black/dp/MLAU-WS856/?d=Womens&amp;page=1&amp;lc=22&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_22</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FREE-WS3408_V1.jpg</t>
   </si>
   <si>
     <t>Seamless V Neck Cami</t>
@@ -224,58 +389,115 @@
     <t>CA$ 45.62</t>
   </si>
   <si>
-    <t>https://www.revolve.com/free-people-seamless-v-neck-cami-in-black/dp/FREE-WS3398/?d=Womens&amp;vn=true&amp;page=1&amp;lc=15&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/MLAU-WS995_V1.jpg</t>
-  </si>
-  <si>
-    <t>Michael Lauren</t>
-  </si>
-  <si>
-    <t>Danton Rib Mesh Corset Top</t>
-  </si>
-  <si>
-    <t>CA$ 131.71</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/michael-lauren-danton-rib-mesh-corset-top-in-black/dp/MLAU-WS995/?d=Womens&amp;vn=true&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/MLAU-WS906_V1.jpg</t>
-  </si>
-  <si>
-    <t>Eric Top</t>
-  </si>
-  <si>
-    <t>CA$ 119.49</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/michael-lauren-eric-top-in-red/dp/MLAU-WS906/?d=Womens&amp;vn=true&amp;page=1&amp;lc=17&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/MLAU-WS975_V1.jpg</t>
-  </si>
-  <si>
-    <t>Alick Long Sleeve Tee</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/michael-lauren-alick-long-sleeve-tee-in-vintage-emerald/dp/MLAU-WS975/?d=Womens&amp;page=1&amp;lc=18&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/anine-bing-walker-tee-spotted-leopard-in-washed-black/dp/ANIN-WS317/?d=Womens&amp;page=1&amp;lc=19&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/UCOD-WS19_V1.jpg</t>
-  </si>
-  <si>
-    <t>Undress Code</t>
-  </si>
-  <si>
-    <t>Kiss And Tell Bodysuit</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/undress-code-kiss-and-tell-bodysuit-in-black/dp/UCOD-WS19/?d=Womens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/free-people-seamless-v-neck-cami-in-white/dp/FREE-WS3408/?d=Womens&amp;page=1&amp;lc=23&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_23</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/COEL-WS403_V1.jpg</t>
+  </si>
+  <si>
+    <t>Camila Coelho</t>
+  </si>
+  <si>
+    <t>Luz Cropped Shirt</t>
+  </si>
+  <si>
+    <t>CA$ 301.22</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/camila-coelho-luz-cropped-shirt-in-white/dp/COEL-WS403/?d=Womens&amp;page=1&amp;lc=25&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_24</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WS73_V1.jpg</t>
+  </si>
+  <si>
+    <t>Long Sleeve Sweetheart Blouse</t>
+  </si>
+  <si>
+    <t>CA$ 208.29</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/norma-kamali-long-sleeve-sweetheart-blouse-in-black/dp/NKAM-WS73/?d=Womens&amp;page=1&amp;lc=26&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_25</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FREE-WS4291_V1.jpg</t>
+  </si>
+  <si>
+    <t>X Intimately FP Night Rhythm Bodysuit</t>
+  </si>
+  <si>
+    <t>CA$ 88.20</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/free-people-x-intimately-fp-night-rhythm-bodysuit-in-ivory-combo/dp/FREE-WS4291/?d=Womens&amp;page=1&amp;lc=27&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_26</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/UCOD-WS15_V1.jpg</t>
+  </si>
+  <si>
+    <t>Sex And The City Bodysuit</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/undress-code-sex-and-the-city-bodysuit-in-black/dp/UCOD-WS15/?d=Womens&amp;page=1&amp;lc=28&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_27</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SPDW-WS1144_V1.jpg</t>
+  </si>
+  <si>
+    <t>superdown</t>
+  </si>
+  <si>
+    <t>Jewels Cross Front Bodysuit</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/superdown-jewels-cross-front-bodysuit-in-white/dp/SPDW-WS1144/?d=Womens&amp;page=1&amp;lc=29&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_28</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SDYS-WS31_V1.jpg</t>
+  </si>
+  <si>
+    <t>Lounge Katya Sheer Top</t>
+  </si>
+  <si>
+    <t>CA$ 83.64</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/sndys-lounge-katya-sheer-top-in-black/dp/SDYS-WS31/?d=Womens&amp;page=1&amp;lc=30&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_29</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/HLSA-WO26_V1.jpg</t>
+  </si>
+  <si>
+    <t>Workwear Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 410.58</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/helsa-workwear-jacket-in-ecru/dp/HLSA-WO26/?d=Womens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_30</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/LIOR-WS17_V1.jpg</t>
@@ -290,58 +512,10 @@
     <t>CA$ 89.72</t>
   </si>
   <si>
-    <t>https://www.revolve.com/lioness-butterfly-corset-in-cream/dp/LIOR-WS17/?d=Womens&amp;page=1&amp;lc=21&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WS83_V1.jpg</t>
-  </si>
-  <si>
-    <t>X REVOLVE Drop Shoulder Top</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/norma-kamali-x-revolve-drop-shoulder-top-in-black/dp/NKAM-WS83/?d=Womens&amp;page=1&amp;lc=22&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/OWIR-WS38_V1.jpg</t>
-  </si>
-  <si>
-    <t>OW Collection</t>
-  </si>
-  <si>
-    <t>X REVOLVE Demi Top</t>
-  </si>
-  <si>
-    <t>CA$ 150.56</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/ow-collection-x-revolve-demi-top-in-light-blue-denim/dp/OWIR-WS38/?d=Womens&amp;page=1&amp;lc=23&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SDYS-WS31_V1.jpg</t>
-  </si>
-  <si>
-    <t>Lounge Katya Sheer Top</t>
-  </si>
-  <si>
-    <t>CA$ 83.64</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/sndys-lounge-katya-sheer-top-in-black/dp/SDYS-WS31/?d=Womens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/MAOU-WS133_V1.jpg</t>
-  </si>
-  <si>
-    <t>Miaou</t>
-  </si>
-  <si>
-    <t>Jinx Top</t>
-  </si>
-  <si>
-    <t>CA$ 472.66</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/miaou-jinx-top-in-strawberry/dp/MAOU-WS133/?d=Womens&amp;page=1&amp;lc=26&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/lioness-butterfly-corset-in-cream/dp/LIOR-WS17/?d=Womens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_31</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WS112_V1.jpg</t>
@@ -353,31 +527,10 @@
     <t>CA$ 232.32</t>
   </si>
   <si>
-    <t>https://www.revolve.com/norma-kamali-x-revolve-nk-shirt-bodysuit-in-white/dp/NKAM-WS112/?d=Womens&amp;page=1&amp;lc=27&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WS73_V1.jpg</t>
-  </si>
-  <si>
-    <t>Long Sleeve Sweetheart Blouse</t>
-  </si>
-  <si>
-    <t>CA$ 208.29</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/norma-kamali-long-sleeve-sweetheart-blouse-in-black/dp/NKAM-WS73/?d=Womens&amp;page=1&amp;lc=28&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FREE-WS4415_V1.jpg</t>
-  </si>
-  <si>
-    <t>x We The Free Clean Prep Polo</t>
-  </si>
-  <si>
-    <t>CA$ 205.09</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/free-people-x-we-the-free-clean-prep-polo-in-ivory-combo/dp/FREE-WS4415/?d=Womens&amp;page=1&amp;lc=29&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/norma-kamali-x-revolve-nk-shirt-bodysuit-in-white/dp/NKAM-WS112/?d=Womens&amp;page=1&amp;lc=33&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_32</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/ANIN-WS303_V1.jpg</t>
@@ -389,43 +542,58 @@
     <t>CA$ 152.08</t>
   </si>
   <si>
-    <t>https://www.revolve.com/anine-bing-walker-leopard-tee-in-vintage-black/dp/ANIN-WS303/?d=Womens&amp;page=1&amp;lc=30&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/HLSA-WO26_V1.jpg</t>
-  </si>
-  <si>
-    <t>Workwear Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 410.58</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/helsa-workwear-jacket-in-ecru/dp/HLSA-WO26/?d=Womens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/COEL-WS403_V1.jpg</t>
-  </si>
-  <si>
-    <t>Camila Coelho</t>
-  </si>
-  <si>
-    <t>Luz Cropped Shirt</t>
-  </si>
-  <si>
-    <t>CA$ 301.22</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/camila-coelho-luz-cropped-shirt-in-white/dp/COEL-WS403/?d=Womens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/UCOD-WS15_V1.jpg</t>
-  </si>
-  <si>
-    <t>Sex And The City Bodysuit</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/undress-code-sex-and-the-city-bodysuit-in-black/dp/UCOD-WS15/?d=Womens&amp;page=1&amp;lc=33&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/anine-bing-walker-leopard-tee-in-vintage-black/dp/ANIN-WS303/?d=Womens&amp;page=1&amp;lc=34&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_33</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/MELR-WS52_V1.jpg</t>
+  </si>
+  <si>
+    <t>Michael Costello</t>
+  </si>
+  <si>
+    <t>x REVOLVE Emery Top</t>
+  </si>
+  <si>
+    <t>CA$ 221.11</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/michael-costello-x-revolve-emery-top-in-white/dp/MELR-WS52/?d=Womens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_34</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SPDW-WS1702_V1.jpg</t>
+  </si>
+  <si>
+    <t>Quincy Strapless Top</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/superdown-quincy-strapless-top-in-white/dp/SPDW-WS1702/?d=Womens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_35</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AFFM-WS344_V1.jpg</t>
+  </si>
+  <si>
+    <t>AFRM</t>
+  </si>
+  <si>
+    <t>x Revolve Ingrid Top</t>
+  </si>
+  <si>
+    <t>CA$ 149.03</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/afrm-x-revolve-ingrid-top-in-mocha-brown-suede/dp/AFFM-WS344/?d=Womens&amp;page=1&amp;lc=37&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_36</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/MLAU-WS705_V1.jpg</t>
@@ -437,109 +605,70 @@
     <t>CA$ 107.27</t>
   </si>
   <si>
-    <t>https://www.revolve.com/michael-lauren-maples-long-sleeve-top-in-black/dp/MLAU-WS705/?d=Womens&amp;page=1&amp;lc=34&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FREE-WS4291_V1.jpg</t>
-  </si>
-  <si>
-    <t>X Intimately FP Night Rhythm Bodysuit</t>
-  </si>
-  <si>
-    <t>CA$ 88.20</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/free-people-x-intimately-fp-night-rhythm-bodysuit-in-ivory-combo/dp/FREE-WS4291/?d=Womens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NOCH-WS37_V1.jpg</t>
-  </si>
-  <si>
-    <t>NONchalant Label</t>
-  </si>
-  <si>
-    <t>Emilia Blouse</t>
-  </si>
-  <si>
-    <t>CA$ 385.62</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/nonchalant-label-emilia-blouse-in-champagne/dp/NOCH-WS37/?d=Womens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SPDW-WS1144_V1.jpg</t>
-  </si>
-  <si>
-    <t>superdown</t>
-  </si>
-  <si>
-    <t>Jewels Cross Front Bodysuit</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/superdown-jewels-cross-front-bodysuit-in-white/dp/SPDW-WS1144/?d=Womens&amp;page=1&amp;lc=37&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/MELR-WS52_V1.jpg</t>
-  </si>
-  <si>
-    <t>Michael Costello</t>
-  </si>
-  <si>
-    <t>x REVOLVE Emery Top</t>
-  </si>
-  <si>
-    <t>CA$ 221.11</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/michael-costello-x-revolve-emery-top-in-white/dp/MELR-WS52/?d=Womens&amp;page=1&amp;lc=38&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WS113_V1.jpg</t>
-  </si>
-  <si>
-    <t>Oversized Boyfriend NK Shirt</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/norma-kamali-oversized-boyfriend-nk-shirt-in-large-glenn-plaid-tweed/dp/NKAM-WS113/?d=Womens&amp;page=1&amp;lc=39&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/MOTO-WS53_V1.jpg</t>
-  </si>
-  <si>
-    <t>MORE TO COME</t>
-  </si>
-  <si>
-    <t>Angelina Halter Top</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/more-to-come-angelina-halter-top-in-ivory/dp/MOTO-WS53/?d=Womens&amp;page=1&amp;lc=40&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LOVF-WS1636_V1.jpg</t>
+    <t>https://www.revolve.com/michael-lauren-maples-long-sleeve-top-in-black/dp/MLAU-WS705/?d=Womens&amp;page=1&amp;lc=38&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_37</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LOVF-WS2828_V1.jpg</t>
   </si>
   <si>
     <t>Lovers and Friends</t>
   </si>
   <si>
-    <t>Nayelli Top</t>
-  </si>
-  <si>
-    <t>CA$ 101.56</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/lovers-and-friends-nayelli-top-in-gold/dp/LOVF-WS1636/?d=Womens&amp;page=1&amp;lc=41&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BEBE-WI250_V1.jpg</t>
-  </si>
-  <si>
-    <t>BLUEBELLA</t>
-  </si>
-  <si>
-    <t>x REVOLVE Skylar Bodysuit</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/bluebella-x-revolve-skylar-bodysuit-in-black/dp/BEBE-WI250/?d=Womens&amp;page=1&amp;lc=42&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>Ray Top</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/lovers-and-friends-ray-top-in-lake-blue/dp/LOVF-WS2828/?d=Womens&amp;page=1&amp;lc=39&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_38</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FAIB-WS275_V1.jpg</t>
+  </si>
+  <si>
+    <t>FAITHFULL THE BRAND</t>
+  </si>
+  <si>
+    <t>Maya Vest</t>
+  </si>
+  <si>
+    <t>CA$ 254.75</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/faithfull-the-brand-maya-vest-in-natural/dp/FAIB-WS275/?d=Womens&amp;page=1&amp;lc=40&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_39</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/JLON-WS1_V1.jpg</t>
+  </si>
+  <si>
+    <t>Jaded London</t>
+  </si>
+  <si>
+    <t>Daytona Faux Leather Corset Top</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/jaded-london-daytona-faux-leather-corset-top-in-brown-blue/dp/JLON-WS1/?d=Womens&amp;page=1&amp;lc=41&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_top_40</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BVEN-WS4_V1.jpg</t>
+  </si>
+  <si>
+    <t>Bella Venice</t>
+  </si>
+  <si>
+    <t>The Caroline Corset</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/bella-venice-the-caroline-corset-in-black/dp/BVEN-WS4/?d=Womens&amp;page=1&amp;lc=42&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
 </sst>
 </file>
@@ -632,782 +761,782 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>87</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>92</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>95</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>100</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>104</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>109</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>113</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>6</v>
+        <v>142</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>117</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>121</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>6</v>
+        <v>151</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>125</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>129</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>134</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>6</v>
+        <v>167</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>137</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>6</v>
+        <v>172</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>141</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>6</v>
+        <v>177</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>145</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>6</v>
+        <v>183</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>150</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>6</v>
+        <v>187</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>43</v>
+        <v>191</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>154</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>6</v>
+        <v>193</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>159</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>6</v>
+        <v>198</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>43</v>
+        <v>181</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>162</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>166</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>171</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>6</v>
+        <v>214</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E41" t="s" s="0">
         <v>78</v>
       </c>
       <c r="F41" t="s" s="0">
-        <v>175</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
